--- a/Misc/game-content-edited.xlsx
+++ b/Misc/game-content-edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por7bp\Documents\GitHub\dokk-game\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csump\source\repos\dokk-game\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317BFC79-C66C-47B4-9FCC-DC6E946FB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01033C25-2776-4BA0-B306-D97AF67B07C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="0" windowWidth="7605" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18795" yWindow="0" windowWidth="10110" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="döntésfa" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="296">
   <si>
     <t>mi történik?</t>
   </si>
@@ -928,9 +928,6 @@
     <t>Meg tudjátok hozni a döntést a kurzusok átalakításáról?</t>
   </si>
   <si>
-    <t>Következő</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -1025,6 +1022,9 @@
   <si>
     <t>!</t>
   </si>
+  <si>
+    <t>Next</t>
+  </si>
 </sst>
 </file>
 
@@ -1033,7 +1033,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1133,8 +1133,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,6 +1166,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1172,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1190,37 +1204,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1233,20 +1247,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Rossz" xfId="1" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <color theme="8"/>
+        <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="2" tint="-0.24994659260841701"/>
+        <color theme="8"/>
       </font>
     </dxf>
   </dxfs>
@@ -1466,38 +1495,37 @@
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
+      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="17" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="71.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="12" customWidth="1"/>
-    <col min="7" max="13" width="4.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5" style="17" customWidth="1"/>
+    <col min="5" max="6" width="5" style="12" customWidth="1"/>
+    <col min="7" max="13" width="5.42578125" style="9" customWidth="1"/>
     <col min="14" max="16384" width="12.5703125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -1540,7 +1568,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>9</v>
@@ -1550,7 +1578,7 @@
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1578,7 +1606,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
@@ -1588,7 +1616,7 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1616,7 +1644,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
@@ -1626,7 +1654,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1654,7 +1682,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
@@ -1664,7 +1692,7 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1692,7 +1720,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>17</v>
@@ -1728,7 +1756,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>19</v>
@@ -1738,7 +1766,7 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="10"/>
@@ -1766,9 +1794,6 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>292</v>
-      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
         <v>269</v>
@@ -1918,13 +1943,13 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="10">
         <v>6</v>
@@ -1957,13 +1982,13 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" s="10">
         <v>6</v>
@@ -1996,17 +2021,17 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2035,7 +2060,7 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="10">
         <v>10</v>
@@ -2071,7 +2096,7 @@
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="10">
         <v>11</v>
@@ -2107,7 +2132,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" s="10">
         <v>12</v>
@@ -2147,7 +2172,7 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" s="10">
         <v>13</v>
@@ -2186,19 +2211,19 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="10">
         <v>10</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" s="10">
         <v>14</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -2226,19 +2251,19 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="10">
         <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="10">
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2266,19 +2291,19 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B21" s="10">
         <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="10">
         <v>14</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2306,13 +2331,13 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" s="10">
         <v>13</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="10">
         <v>14</v>
@@ -2345,7 +2370,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>27</v>
@@ -2386,10 +2411,10 @@
         <v>29</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="10">
@@ -2458,13 +2483,13 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
@@ -2610,13 +2635,16 @@
       <c r="AC29" s="10"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>294</v>
+      </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>37</v>
@@ -2653,7 +2681,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>38</v>
@@ -2690,7 +2718,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>40</v>
@@ -2701,7 +2729,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -2729,7 +2757,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>42</v>
@@ -2766,7 +2794,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
@@ -2802,6 +2830,9 @@
       <c r="AC34" s="10"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>294</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
         <v>46</v>
@@ -2838,6 +2869,9 @@
       <c r="AC35" s="10"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>294</v>
+      </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
         <v>48</v>
@@ -2875,7 +2909,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>50</v>
@@ -2984,7 +3018,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>54</v>
@@ -3093,7 +3127,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>57</v>
@@ -3132,7 +3166,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>60</v>
@@ -3319,7 +3353,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>67</v>
@@ -3514,7 +3548,7 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" s="10">
         <v>29</v>
@@ -3815,7 +3849,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>84</v>
@@ -4040,7 +4074,7 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>93</v>
@@ -4271,7 +4305,7 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>95</v>
@@ -4502,7 +4536,7 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>98</v>
@@ -4657,7 +4691,7 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>105</v>
@@ -4694,7 +4728,7 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>107</v>
@@ -4731,7 +4765,7 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>108</v>
@@ -4886,7 +4920,7 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>115</v>
@@ -4923,7 +4957,7 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>117</v>
@@ -4960,7 +4994,7 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>118</v>
@@ -4997,7 +5031,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>120</v>
@@ -5158,7 +5192,7 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>124</v>
@@ -5199,7 +5233,7 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>125</v>
@@ -5442,7 +5476,7 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>132</v>
@@ -5641,7 +5675,7 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>139</v>
@@ -5678,7 +5712,7 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>140</v>
@@ -5833,7 +5867,7 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>145</v>
@@ -5870,7 +5904,7 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>146</v>
@@ -5945,45 +5979,46 @@
       <c r="AB116" s="10"/>
       <c r="AC116" s="10"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B117" s="10"/>
-      <c r="C117" s="11" t="s">
+    <row r="117" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="23"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D117" s="10"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11" t="s">
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="24">
         <v>-1</v>
       </c>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="10"/>
-      <c r="P117" s="10"/>
-      <c r="Q117" s="10"/>
-      <c r="R117" s="10"/>
-      <c r="S117" s="10"/>
-      <c r="T117" s="10"/>
-      <c r="U117" s="10"/>
-      <c r="V117" s="10"/>
-      <c r="W117" s="10"/>
-      <c r="X117" s="10"/>
-      <c r="Y117" s="10"/>
-      <c r="Z117" s="10"/>
-      <c r="AA117" s="10"/>
-      <c r="AB117" s="10"/>
-      <c r="AC117" s="10"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+      <c r="R117" s="24"/>
+      <c r="S117" s="24"/>
+      <c r="T117" s="24"/>
+      <c r="U117" s="24"/>
+      <c r="V117" s="24"/>
+      <c r="W117" s="24"/>
+      <c r="X117" s="24"/>
+      <c r="Y117" s="24"/>
+      <c r="Z117" s="24"/>
+      <c r="AA117" s="24"/>
+      <c r="AB117" s="24"/>
+      <c r="AC117" s="24"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>150</v>
@@ -6162,7 +6197,7 @@
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>156</v>
@@ -6361,7 +6396,7 @@
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>162</v>
@@ -6520,7 +6555,7 @@
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>170</v>
@@ -6637,7 +6672,7 @@
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>175</v>
@@ -6676,7 +6711,7 @@
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>177</v>
@@ -6841,7 +6876,7 @@
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>182</v>
@@ -7006,7 +7041,7 @@
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>187</v>
@@ -7165,7 +7200,7 @@
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>194</v>
@@ -7372,7 +7407,7 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>201</v>
@@ -7411,7 +7446,7 @@
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>204</v>
@@ -7576,7 +7611,7 @@
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>212</v>
@@ -7613,7 +7648,7 @@
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>214</v>
@@ -7650,7 +7685,7 @@
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>216</v>
@@ -7687,7 +7722,7 @@
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>218</v>
@@ -7724,7 +7759,7 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>220</v>
@@ -7877,7 +7912,7 @@
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>225</v>
@@ -33353,11 +33388,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD420">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A1="!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A1="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
